--- a/public/preprocessing/@DavidChalik.xlsx
+++ b/public/preprocessing/@DavidChalik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19850</v>
+        <v>32864</v>
       </c>
       <c r="C2" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['rt', 'who', 'has', 'copy', 'of', 'this', 'collectible', 'rpm', 'flexidisc', 'from', 'the', 'netherlands', 'dengan', 'girls', 'on', 'film', 'rio', 'hungry']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['who', 'has', 'copy', 'of', 'this', 'collectible', 'rpm', 'flexidisc', 'from', 'the', 'netherlands', 'with', 'girls', 'on', 'film', 'rio', 'hungry']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['who', 'has', 'copy', 'of', 'this', 'collectible', 'rpm', 'flexidisc', 'from', 'the', 'netherlands', 'with', 'girls', 'on', 'film', 'rio', 'hungry']</t>
+          <t>['who', 'has', 'copy', 'of', 'this', 'collectible', 'rpm', 'flexidisc', 'from', 'the', 'netherlands', 'girls', 'on', 'film', 'rio', 'hungry']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['who', 'has', 'copy', 'of', 'this', 'collectible', 'rpm', 'flexidisc', 'from', 'the', 'netherlands', 'girls', 'on', 'film', 'rio', 'hungry']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19851</v>
+        <v>32865</v>
       </c>
       <c r="C3" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,17 +538,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'keinginan', 'syaikh', 'ali', 'jaber', 'untuk', 'bertemu', 'nabi', 'saw', 'dalam', 'keadaan', 'beliau', 'saw', 'ridha', 'kpdnya', 'tercapai', 'sudah', 'kalian', 'saabiquun']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['bagir', 'syaikh', 'ali', 'jaber', 'bertemu', 'nabi', 'saw', 'dlm', 'beliau', 'saw', 'ridha', 'kpdnya', 'tercapai', 'antum', 'saabiquun']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['bagir', 'syaikh', 'ali', 'jaber', 'temu', 'nabi', 'saw', 'dlm', 'beliau', 'saw', 'ridha', 'kpdnya', 'capai', 'antum', 'saabiquun']</t>
+          <t>['bagir', 'syaikh', 'ali', 'jaber', 'bertemu', 'nabi', 'saw', 'beliau', 'saw', 'ridha', 'kpdnya', 'tercapai', 'saabiquun']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['bagir', 'syaikh', 'ali', 'jaber', 'temu', 'nabi', 'saw', 'beliau', 'saw', 'ridha', 'kpdnya', 'capai', 'saabiquun']</t>
         </is>
       </c>
     </row>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19852</v>
+        <v>32866</v>
       </c>
       <c r="C4" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,15 +579,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['rt', 'dan', 'pada', 'sebagian', 'mala']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['mala']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['mala']</t>
         </is>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19853</v>
+        <v>32867</v>
       </c>
       <c r="C5" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,15 +620,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['rappy', 'ft', 'sing', 'blue', 'silver', 'indonesia', 'duran', 'duran', 'mega', 'mashup', 'via']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['rappy', 'ft', 'sing', 'blue', 'silver', 'indonesia', 'duran', 'duran', 'mega', 'mashup', 'via']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['rappy', 'ft', 'sing', 'blue', 'silver', 'indonesia', 'dur', 'dur', 'mega', 'mashup', 'via']</t>
         </is>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19854</v>
+        <v>32868</v>
       </c>
       <c r="C6" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['rt', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'telah', 'berpulang', 'ke', 'rahmatullah', 'ibu', 'hj', 'siti', 'khalilah', 'binti', 'ayub', 'istri', 'almaghfur']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'berpulang', 'rahmatullah', 'ummi', 'hj', 'siti', 'khalilah', 'binti', 'ayub', 'istri', 'almaghfur']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'pulang', 'rahmatullah', 'ummi', 'hj', 'siti', 'khali', 'binti', 'ayub', 'istri', 'almaghfur']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'berpulang', 'rahmatullah', 'hj', 'siti', 'khalilah', 'binti', 'ayub', 'istri', 'almaghfur']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'pulang', 'rahmatullah', 'hj', 'siti', 'khali', 'binti', 'ayub', 'istri', 'almaghfur']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19855</v>
+        <v>32869</v>
       </c>
       <c r="C7" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,17 +702,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'di', 'dalam', 'kisah', 'ashhab', 'alkahfi', 'allah', 'mengisyaratkan', 'adanya', 'bilangan', 'tahun', 'syamsyiyah', 'hitungan', 'matahari', 'amp', 'qamariyah', 'hitun']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['bagir', 'dlm', 'kisah', 'ashhab', 'alkahfi', 'allah', 'mengisyaratkan', 'bilangan', 'thn', 'syamsyiyah', 'hitungan', 'matahari', 'qamariyah', 'hitun']</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['bagir', 'dlm', 'kisah', 'ashhab', 'alkahfi', 'allah', 'isyarat', 'bilang', 'thn', 'syamsyiyah', 'hitung', 'matahari', 'qamariyah', 'hitun']</t>
+          <t>['bagir', 'kisah', 'ashhab', 'alkahfi', 'allah', 'mengisyaratkan', 'bilangan', 'syamsyiyah', 'hitungan', 'matahari', 'qamariyah', 'hitun']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['bagir', 'kisah', 'ashhab', 'alkahfi', 'allah', 'isyarat', 'bilang', 'syamsyiyah', 'hitung', 'matahari', 'qamariyah', 'hitun']</t>
         </is>
       </c>
     </row>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19856</v>
+        <v>32870</v>
       </c>
       <c r="C8" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,15 +743,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['rt', 'buya', 'syafii', 'maarif', 'di', 'bumi', 'yang', 'satu', 'ini', 'hanya', 'bisa', 'aman', 'kalau', 'ada', 'toleransi']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>['buya', 'syafii', 'maarif', 'bumi', 'aman', 'toleransi']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['buya', 'syafii', 'maarif', 'bumi', 'aman', 'toleransi']</t>
         </is>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19857</v>
+        <v>32871</v>
       </c>
       <c r="C9" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,15 +784,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['fundamental', 'islam', 'selain', 'allah', 'yang', 'ahad', 'esa', 'tauhid', 'agama', 'islam', 'damai', 'dan', 'rahmat', 'bagi', 'semesta', 'alam', 'yang', 'ti']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['fundamental', 'islam', 'allah', 'ahad', 'esa', 'tauhid', 'agama', 'islam', 'damai', 'rahmat', 'semesta', 'alam', 'ti']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['fundamental', 'islam', 'allah', 'ahad', 'esa', 'tauhid', 'agama', 'islam', 'damai', 'rahmat', 'semesta', 'alam', 'ti']</t>
         </is>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19858</v>
+        <v>32872</v>
       </c>
       <c r="C10" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['rt', 'desember', 'adalah', 'hari', 'wafat', 'maulana', 'jalaluddin', 'rumi', 'para', 'pencinta', 'rumi', 'menggelar', 'acara', 'spesial', 'dalam', 'mengenang', 'pemikira']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['desember', 'wafat', 'maulana', 'jalaluddin', 'rumi', 'pecinta', 'rumi', 'menggelar', 'acara', 'spesial', 'mengenang', 'pemikira']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>['desember', 'wafat', 'maulana', 'jalaluddin', 'rumi', 'pencinta', 'rumi', 'menggelar', 'acara', 'spesial', 'mengenang', 'pemikira']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>['desember', 'wafat', 'maulana', 'jalaluddin', 'rumi', 'cinta', 'rumi', 'gelar', 'acara', 'spesial', 'kenang', 'pemikira']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19859</v>
+        <v>32873</v>
       </c>
       <c r="C11" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,15 +866,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['rt', 'maret', 'hbo', 'max']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>['maret', 'hbo', 'max']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['maret', 'hbo', 'max']</t>
         </is>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19860</v>
+        <v>32874</v>
       </c>
       <c r="C12" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,17 +907,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'bangga', 'terhadap', 'keturunan', 'oleh', 'imam', 'ghazali', 'disbt', 'salah', 'satu', 'bentuk', 'ghurur', 'pengelabuan', 'oleh', 'diri', 'termasuk', 'bangga', 'sebagai', 'keturun']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['bagir', 'bangga', 'thd', 'keturunan', 'imam', 'ghazali', 'disbt', 'salah', 'bentuk', 'ghurur', 'pengelabuan', 'trmsk', 'bangga', 'sbg', 'keturun']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['bagir', 'bangga', 'thd', 'turun', 'imam', 'ghazali', 'disbt', 'salah', 'bentuk', 'ghurur', 'kelabu', 'trmsk', 'bangga', 'sbg', 'turun']</t>
+          <t>['bagir', 'bangga', 'keturunan', 'imam', 'ghazali', 'disbt', 'salah', 'bentuk', 'ghurur', 'pengelabuan', 'bangga', 'keturun']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['bagir', 'bangga', 'turun', 'imam', 'ghazali', 'disbt', 'salah', 'bentuk', 'ghurur', 'kelabu', 'bangga', 'turun']</t>
         </is>
       </c>
     </row>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19861</v>
+        <v>32875</v>
       </c>
       <c r="C13" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'pengakuan', 'akan', 'kemuliaan', 'adalah', 'sesuatu', 'yang', 'diberikan', 'orang', 'lain', 'yang', 'memang', 'melihat', 'ada', 'sifat', 'kemuliaan', 'pada', 'diri', 'seseorang', 'buk']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['bagir', 'pengakuan', 'kemuliaan', 'adlh', 'org', 'sifat', 'kemuliaan', 'pd', 'buk']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['bagir', 'aku', 'mulia', 'adlh', 'org', 'sifat', 'mulia', 'pd', 'buk']</t>
+          <t>['bagir', 'pengakuan', 'kemuliaan', 'orang', 'sifat', 'kemuliaan', 'buk']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['bagir', 'aku', 'mulia', 'orang', 'sifat', 'mulia', 'buk']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19862</v>
+        <v>32876</v>
       </c>
       <c r="C14" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,17 +989,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['rt', 'irwandidavid', 'chalik', 'daftar', 'ke', 'komisi, pemelihan, umum', 'bukittinggi', 'berkas', 'dinyatakan', 'lengkap', 'via']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['irwandidavid', 'chalik', 'daftar', 'kpu', 'bukittinggi', 'berkas', 'dinyatakan', 'lengkap', 'via']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['irwandidavid', 'chalik', 'daftar', 'kpu', 'bukittinggi', 'berkas', 'nyata', 'lengkap', 'via']</t>
+          <t>['irwandidavid', 'chalik', 'daftar', 'komisi, pemelihan, umum', 'bukittinggi', 'berkas', 'dinyatakan', 'lengkap', 'via']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['irwandidavid', 'chalik', 'daftar', 'komisi pemelihan umum', 'bukittinggi', 'berkas', 'nyata', 'lengkap', 'via']</t>
         </is>
       </c>
     </row>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19863</v>
+        <v>32877</v>
       </c>
       <c r="C15" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,17 +1030,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'seorang', 'anak', 'muda', 'yang', 'sedang', 'berolahraga', 'secara', 'kebetulan', 'beristirahat', 'di', 'kursi', 'taman', 'di', 'sebelah', 'seorang', 'prp', 'muda', 'cantik', 'dia', 'menyapa', 'dengan']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 23 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['bagir', 'seorg', 'anak', 'muda', 'sdg', 'berolahraga', 'scr', 'kbtln', 'beristirahat', 'kursi', 'taman', 'sblh', 'seorg', 'prp', 'muda', 'cantik', 'menyapa']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['bagir', 'seorg', 'anak', 'muda', 'sdg', 'olahraga', 'scr', 'kbtln', 'istirahat', 'kursi', 'taman', 'sblh', 'seorg', 'prp', 'muda', 'cantik', 'sapa']</t>
+          <t>['bagir', 'anak', 'muda', 'berolahraga', 'beristirahat', 'kursi', 'taman', 'sebelah', 'prp', 'muda', 'cantik', 'menyapa']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['bagir', 'anak', 'muda', 'olahraga', 'istirahat', 'kursi', 'taman', 'belah', 'prp', 'muda', 'cantik', 'sapa']</t>
         </is>
       </c>
     </row>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19864</v>
+        <v>32878</v>
       </c>
       <c r="C16" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,15 +1071,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['manusia', 'tidak', 'terusir', 'dari', 'surga', 'quraish', 'shihab', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['manusia', 'terusir', 'surga', 'quraish', 'shihab', 'podcast', 'via']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['manusia', 'usir', 'surga', 'quraish', 'shihab', 'podcast', 'via']</t>
         </is>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19865</v>
+        <v>32879</v>
       </c>
       <c r="C17" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,17 +1112,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['rt', 'integrity', 'is', 'by', 'doing', 'the', 'right', 'thing', 'when', 'no', 'one', 'is', 'menonton']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['integrity', 'is', 'by', 'doing', 'the', 'right', 'thing', 'when', 'no', 'one', 'is', 'watching']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['integrity', 'is', 'by', 'doing', 'the', 'right', 'thing', 'when', 'no', 'one', 'is', 'watching']</t>
+          <t>['integrity', 'is', 'by', 'doing', 'the', 'right', 'thing', 'when', 'no', 'one', 'is', 'menonton']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['integrity', 'is', 'by', 'doing', 'the', 'right', 'thing', 'when', 'no', 'one', 'is', 'tonton']</t>
         </is>
       </c>
     </row>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19866</v>
+        <v>32880</v>
       </c>
       <c r="C18" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,15 +1153,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'coretan', 'kedua', 'saya', 'terkait', 'debat', 'sains', 'filsafat', 'dan', 'agama', 'saya', 'meski', 'dengan', 'cara', 'sederhana', 'mencoba', 'melihat', 'dari', 'perspekt']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['bagir', 'coretan', 'terkait', 'debat', 'sains', 'filsafat', 'agama', 'sederhana', 'mencoba', 'perspekt']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['bagir', 'coret', 'kait', 'debat', 'sains', 'filsafat', 'agama', 'sederhana', 'coba', 'perspekt']</t>
         </is>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19867</v>
+        <v>32881</v>
       </c>
       <c r="C19" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,17 +1194,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['rt', 'masa', 'gue', 'diam']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['gua', 'diem']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['gua', 'diem']</t>
+          <t>['gue', 'diam']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['gue', 'diam']</t>
         </is>
       </c>
     </row>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19868</v>
+        <v>32882</v>
       </c>
       <c r="C20" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,15 +1235,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['rt', 'handry', 'hidup', 'itu', 'bukan', 'soal', 'durasi', 'tapi', 'kontribusi', 'thread']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>['handry', 'hidup', 'durasi', 'kontribusi', 'thread']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['handry', 'hidup', 'durasi', 'kontribusi', 'thread']</t>
         </is>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19869</v>
+        <v>32883</v>
       </c>
       <c r="C21" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,17 +1276,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['rt', 'berita', 'baik', 'rapid', 'tes', 'antigen', 'covid', 'akurasi', 'kini', 'bisa', 'diproduksi', 'oleh', 'industri', 'bioteknologi', 'jawa', 'barat', 'bisa', 'tidak']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['berita', 'rapid', 'test', 'antigen', 'covid', 'akurasi', 'diproduksi', 'industri', 'bioteknologi', 'jawa', 'barat']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['berita', 'rapid', 'test', 'antigen', 'covid', 'akurasi', 'produksi', 'industri', 'bioteknologi', 'jawa', 'barat']</t>
+          <t>['berita', 'rapid', 'tes', 'antigen', 'covid', 'akurasi', 'diproduksi', 'industri', 'bioteknologi', 'jawa', 'barat']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['berita', 'rapid', 'tes', 'antigen', 'covid', 'akurasi', 'produksi', 'industri', 'bioteknologi', 'jawa', 'barat']</t>
         </is>
       </c>
     </row>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19870</v>
+        <v>32884</v>
       </c>
       <c r="C22" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,17 +1317,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['rt', 'jika', 'ingin', 'tahu', 'kedalaman', 'agama', 'seseorang', 'jangan', 'lihat', 'jumlah', 'salat', 'amp', 'puasanya', 'tapi', 'lihat', 'cara', 'ia', 'perlakukan', 'orang', 'lah']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['kedalaman', 'agama', 'lihat', 'sholat', 'puasanya', 'lihat', 'perlakukan', 'orang', 'la']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['dalam', 'agama', 'lihat', 'sholat', 'puasa', 'lihat', 'laku', 'orang', 'la']</t>
+          <t>['kedalaman', 'agama', 'lihat', 'salat', 'puasanya', 'lihat', 'perlakukan', 'orang']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['dalam', 'agama', 'lihat', 'salat', 'puasa', 'lihat', 'laku', 'orang']</t>
         </is>
       </c>
     </row>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19871</v>
+        <v>32885</v>
       </c>
       <c r="C23" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,15 +1358,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'orang', 'baik', 'semoga', 'husnul', 'khaatimah', 'dan', 'mendapatkan', 'rahmat', 'yang', 'dicurahkannya', 'kepada', 'orang', 'baik']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['bagir', 'orang', 'semoga', 'husnul', 'khaatimah', 'rahmat', 'dicurahkannya', 'orang']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['bagir', 'orang', 'moga', 'husnul', 'khaatimah', 'rahmat', 'curah', 'orang']</t>
         </is>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19872</v>
+        <v>32886</v>
       </c>
       <c r="C24" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,17 +1399,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'mentari', 'bersinar', 'bulan', 'dan', 'gemintang', 'bercahya', 'dalam', 'belas', 'kasih', 'mentari', 'milik', 'yang', 'terpuji', 'adalah', 'sinar', 'mentari', 'milik', 'rembula']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['bagir', 'mentari', 'bersinar', 'gemintang', 'bercahya', 'dlm', 'belas', 'kasih', 'mentari', 'milik', 'terpuji', 'adlh', 'sinar', 'mentari', 'milik', 'rembula']</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['bagir', 'mentari', 'sinar', 'gemintang', 'bercahya', 'dlm', 'belas', 'kasih', 'mentari', 'milik', 'puji', 'adlh', 'sinar', 'mentari', 'milik', 'rembula']</t>
+          <t>['bagir', 'mentari', 'bersinar', 'gemintang', 'bercahya', 'belas', 'kasih', 'mentari', 'milik', 'terpuji', 'sinar', 'mentari', 'milik', 'rembula']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['bagir', 'mentari', 'sinar', 'gemintang', 'bercahya', 'belas', 'kasih', 'mentari', 'milik', 'puji', 'sinar', 'mentari', 'milik', 'rembula']</t>
         </is>
       </c>
     </row>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19873</v>
+        <v>32887</v>
       </c>
       <c r="C25" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'sih', 'ayah', 'sudah', 'pikun', 'suka', 'bertanya', 'hal', 'yang', 'sama', 'bolakbalik', 'kali', 'ini', 'tentang', 'apa', 'handphone', 'yang', 'diipegang', 'anaknya', 'anaknya', 'kesal', 'marah']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['bagir', 'ayah', 'pikun', 'suka', 'nanya', 'bolakbalik', 'kali', 'ttg', 'hp', 'diipegang', 'anaknya', 'anaknya', 'kesal', 'marah']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['bagir', 'ayah', 'pikun', 'suka', 'nanya', 'bolakbalik', 'kali', 'ttg', 'hp', 'diipegang', 'anak', 'anak', 'kesal', 'marah']</t>
+          <t>['bagir', 'ayah', 'pikun', 'suka', 'bolakbalik', 'kali', 'handphone', 'diipegang', 'anaknya', 'anaknya', 'kesal', 'marah']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['bagir', 'ayah', 'pikun', 'suka', 'bolakbalik', 'kali', 'handphone', 'diipegang', 'anak', 'anak', 'kesal', 'marah']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19874</v>
+        <v>32888</v>
       </c>
       <c r="C26" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,17 +1481,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['rt', 'kalau', 'di, luar', 'negeri', 'banyak', 'rumah', 'model', 'persegi', 'panjang', 'manufactured', 'home', 'atau', 'prefab', 'home', 'temboknya', 'dari', 'kayu', 'bukan', 'beton']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['diluar', 'negeri', 'rumah', 'model', 'persegi', 'manufactured', 'home', 'prefab', 'home', 'temboknya', 'kayu', 'beton']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['luar', 'negeri', 'rumah', 'model', 'persegi', 'manufactured', 'home', 'prefab', 'home', 'tembok', 'kayu', 'beton']</t>
+          <t>['di, luar', 'negeri', 'rumah', 'model', 'persegi', 'manufactured', 'home', 'prefab', 'home', 'temboknya', 'kayu', 'beton']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['di luar', 'negeri', 'rumah', 'model', 'persegi', 'manufactured', 'home', 'prefab', 'home', 'tembok', 'kayu', 'beton']</t>
         </is>
       </c>
     </row>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19875</v>
+        <v>32889</v>
       </c>
       <c r="C27" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,17 +1522,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'surat, pemberitahuan, tahunan', 'musa', 'di', 'bukit', 'thuwa', 'kuburu', 'tuanku', 'seperti', 'bisa', 'di', 'tiang', 'salib', 'kupanggilpanggil', 'penolongku', 'seperti', 'ahmad', 'di', 'pohon', 'sih']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['bagir', 'spt', 'musa', 'bukit', 'thuwa', 'kuburu', 'tuanku', 'isa', 'tiang', 'salib', 'kupanggilpanggil', 'penolongku', 'ahmad', 'pohon']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['bagir', 'spt', 'musa', 'bukit', 'thuwa', 'buru', 'tuanku', 'isa', 'tiang', 'salib', 'kupanggilpanggil', 'tolong', 'ahmad', 'pohon']</t>
+          <t>['bagir', 'surat, pemberitahuan, tahunan', 'musa', 'bukit', 'thuwa', 'kuburu', 'tuanku', 'tiang', 'salib', 'kupanggilpanggil', 'penolongku', 'ahmad', 'pohon']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['bagir', 'surat pemberitahuan tahun', 'musa', 'bukit', 'thuwa', 'buru', 'tuanku', 'tiang', 'salib', 'kupanggilpanggil', 'tolong', 'ahmad', 'pohon']</t>
         </is>
       </c>
     </row>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19876</v>
+        <v>32890</v>
       </c>
       <c r="C28" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,17 +1563,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'kalau', 'bukan', 'karena', 'nasihat', 'presiden', 'soekarno', 'kepada', 'presiden', 'gamal', 'abdul', 'naser', 'ketika', 'keduanya', 'bertemu', 'di', 'bandung', 'maka', 'al']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['bagir', 'nasihat', 'presiden', 'soekarno', 'kpd', 'presiden', 'gamal', 'abdul', 'naser', 'bertemu', 'bandung', 'al']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['bagir', 'nasihat', 'presiden', 'soekarno', 'kpd', 'presiden', 'gamal', 'abdul', 'naser', 'temu', 'bandung', 'al']</t>
+          <t>['bagir', 'nasihat', 'presiden', 'soekarno', 'presiden', 'gamal', 'abdul', 'naser', 'bertemu', 'bandung', 'al']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['bagir', 'nasihat', 'presiden', 'soekarno', 'presiden', 'gamal', 'abdul', 'naser', 'temu', 'bandung', 'al']</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19877</v>
+        <v>32891</v>
       </c>
       <c r="C29" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,17 +1604,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'manusia', 'tercipta', 'oleh', 'allah', 'dalam', 'keadaan', 'belum', 'selesai', 'dia', 'berada', 'di', 'martabat', 'wujud', 'yang', 'rendah', 'padahal', 'kalau', 'mau', 'bersusa']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['bagir', 'manusia', 'tercipta', 'allah', 'dlm', 'selesai', 'martabat', 'wujud', 'rendah', 'pdhl', 'bersusa']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['bagir', 'manusia', 'cipta', 'allah', 'dlm', 'selesai', 'martabat', 'wujud', 'rendah', 'pdhl', 'bersusa']</t>
+          <t>['bagir', 'manusia', 'tercipta', 'allah', 'selesai', 'martabat', 'wujud', 'rendah', 'bersusa']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['bagir', 'manusia', 'cipta', 'allah', 'selesai', 'martabat', 'wujud', 'rendah', 'bersusa']</t>
         </is>
       </c>
     </row>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19878</v>
+        <v>32892</v>
       </c>
       <c r="C30" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,15 +1645,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['duka', 'cita', 'atas', 'meninggalnya', 'bung', 'glen', 'fredly', 'semoga', 'tuhan', 'memberkati', 'jiwanya']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>['duka', 'cita', 'meninggalnya', 'glen', 'fredly', 'semoga', 'tuhan', 'memberkati', 'jiwanya']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>['duka', 'cita', 'tinggal', 'glen', 'fredly', 'moga', 'tuhan', 'kati', 'jiwa']</t>
         </is>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19879</v>
+        <v>32893</v>
       </c>
       <c r="C31" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,17 +1686,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['sih', 'sudah', 'ngobrass', 'episode', 'cahaya', 'ilahi', 'televisi', 'program', 'via']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['uda', 'ngobrass', 'episode', 'cahaya', 'ilahi', 'tv', 'program', 'via']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['uda', 'ngobrass', 'episode', 'cahaya', 'ilahi', 'tv', 'program', 'via']</t>
+          <t>['ngobrass', 'episode', 'cahaya', 'ilahi', 'televisi', 'program', 'via']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['ngobrass', 'episode', 'cahaya', 'ilahi', 'televisi', 'program', 'via']</t>
         </is>
       </c>
     </row>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19880</v>
+        <v>32894</v>
       </c>
       <c r="C32" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,17 +1727,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['rt', 'ustaz', 'dari', 'ali', 'nurdin', 'sama', 'kesalahan', 'dalam', 'pemahaman', 'saqinah', 'mawaddah', 'via']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['ustadz', 'dr', 'ali', 'nurdin', 'ma', 'kesalahan', 'pemahaman', 'saqinah', 'mawaddah', 'via']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['ustadz', 'dr', 'ali', 'nurdin', 'ma', 'salah', 'paham', 'saqinah', 'mawaddah', 'via']</t>
+          <t>['ustaz', 'ali', 'nurdin', 'kesalahan', 'pemahaman', 'saqinah', 'mawaddah', 'via']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['ustaz', 'ali', 'nurdin', 'salah', 'paham', 'saqinah', 'mawaddah', 'via']</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19881</v>
+        <v>32895</v>
       </c>
       <c r="C33" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,17 +1768,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['ustaz', 'dari', 'ali', 'nurdin', 'sama', 'kesalahan', 'dalam', 'pemahaman', 'saqinah', 'mawaddah', 'via']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['ustadz', 'dr', 'ali', 'nurdin', 'ma', 'kesalahan', 'pemahaman', 'saqinah', 'mawaddah', 'via']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['ustadz', 'dr', 'ali', 'nurdin', 'ma', 'salah', 'paham', 'saqinah', 'mawaddah', 'via']</t>
+          <t>['ustaz', 'ali', 'nurdin', 'kesalahan', 'pemahaman', 'saqinah', 'mawaddah', 'via']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['ustaz', 'ali', 'nurdin', 'salah', 'paham', 'saqinah', 'mawaddah', 'via']</t>
         </is>
       </c>
     </row>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19882</v>
+        <v>32896</v>
       </c>
       <c r="C34" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,17 +1809,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['asswrwb', 'bismillah', 'ikut', 'kajian', 'ayo', 'tentang', 'kesalahan', 'penyebutan', 'saqinah', 'mawaddah', 'wa', 'rahmah', 'di', 'sih', 'sudah', 'ngobrass']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['asswrwb', 'bismillah', 'kajian', 'yukk', 'kesalahan', 'penyebutan', 'saqinah', 'mawaddah', 'wa', 'rahmah', 'uda', 'ngobrass']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['asswrwb', 'bismillah', 'kaji', 'yukk', 'salah', 'sebut', 'saqinah', 'mawaddah', 'wa', 'rahmah', 'uda', 'ngobrass']</t>
+          <t>['asswrwb', 'bismillah', 'kajian', 'ayo', 'kesalahan', 'penyebutan', 'saqinah', 'mawaddah', 'wa', 'rahmah', 'ngobrass']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['asswrwb', 'bismillah', 'kaji', 'ayo', 'salah', 'sebut', 'saqinah', 'mawaddah', 'wa', 'rahmah', 'ngobrass']</t>
         </is>
       </c>
     </row>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19883</v>
+        <v>32897</v>
       </c>
       <c r="C35" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,17 +1850,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'beliau', 'pernah', 'menjadi', 'pt', 'saya', 'mbak', 'di', 'tahun', 'sekolah, dasar', 'kami', 'lost']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'beliau', 'pt', 'mbak', 'sd', 'lost']</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'beliau', 'pt', 'mbak', 'sd', 'lost']</t>
+          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'beliau', 'pt', 'mbak', 'sekolah, dasar', 'lost']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'beliau', 'pt', 'mbak', 'sekolah dasar', 'lost']</t>
         </is>
       </c>
     </row>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19884</v>
+        <v>32898</v>
       </c>
       <c r="C36" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,17 +1891,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'priya', 'gopal', 'dosen', 'di', 'cambridge', 'uni', 'menyamakan', 'serangan', 'kepada', 'muslim', 'masjid', 'amp', 'rumah', 'mereka', 'dengan', 'kejahatan', 'serangan', 'nazi', 'jerman']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['bagir', 'priya', 'gopal', 'dosen', 'cambridge', 'uni', 'menyamakan', 'serangan', 'kpd', 'muslim', 'masjid', 'rumah', 'mrk', 'kejahatan', 'serangan', 'nazi', 'jerman']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['bagir', 'priya', 'gopal', 'dosen', 'cambridge', 'uni', 'sama', 'serang', 'kpd', 'muslim', 'masjid', 'rumah', 'mrk', 'jahat', 'serang', 'nazi', 'jerman']</t>
+          <t>['bagir', 'priya', 'gopal', 'dosen', 'cambridge', 'uni', 'menyamakan', 'serangan', 'muslim', 'masjid', 'rumah', 'kejahatan', 'serangan', 'nazi', 'jerman']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['bagir', 'priya', 'gopal', 'dosen', 'cambridge', 'uni', 'sama', 'serang', 'muslim', 'masjid', 'rumah', 'jahat', 'serang', 'nazi', 'jerman']</t>
         </is>
       </c>
     </row>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19885</v>
+        <v>32899</v>
       </c>
       <c r="C37" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,17 +1932,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'jika', 'kamu', 'senantiasa', 'menghancurkan', 'hati', 'orang', 'lain', 'maka', 'ibadah', 'apa', 'pun', 'yang', 'kaulakukan', 'tak', 'kan', 'ada', 'gunanya', 'syamsi', 'tab']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['bagir', 'kau', 'senantiasa', 'menghancurkan', 'hati', 'orang', 'ibadah', 'kaulakukan', 'gunanya', 'syamsi', 'tab']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['bagir', 'kau', 'senantiasa', 'hancur', 'hati', 'orang', 'ibadah', 'laku', 'guna', 'syamsi', 'tab']</t>
+          <t>['bagir', 'senantiasa', 'menghancurkan', 'hati', 'orang', 'ibadah', 'kaulakukan', 'gunanya', 'syamsi', 'tab']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['bagir', 'senantiasa', 'hancur', 'hati', 'orang', 'ibadah', 'laku', 'guna', 'syamsi', 'tab']</t>
         </is>
       </c>
     </row>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19886</v>
+        <v>32900</v>
       </c>
       <c r="C38" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['rt', 'safari', 'khazanah', 'islam', 'metro', 'televisi', 'televisi', 'mirza', 'ekarmzmm', 'zackymirzadistro']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['safari', 'khazanah', 'islam', 'metro', 'tv', 'tv', 'mirza', 'ekarmzmm', 'zackymirzadistro']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['safari', 'khazanah', 'islam', 'metro', 'tv', 'tv', 'mirza', 'ekarmzmm', 'zackymirzadistro']</t>
+          <t>['safari', 'khazanah', 'islam', 'metro', 'televisi', 'televisi', 'mirza', 'ekarmzmm', 'zackymirzadistro']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['safari', 'khazanah', 'islam', 'metro', 'televisi', 'televisi', 'mirza', 'ekarmzmm', 'zackymirzadistro']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19887</v>
+        <v>32901</v>
       </c>
       <c r="C39" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,15 +2014,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['rt', 'the', 'bagaikan', 'langit', 'challenge', 'by']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['the', 'langit', 'challenge', 'by']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['the', 'langit', 'challenge', 'by']</t>
         </is>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19888</v>
+        <v>32902</v>
       </c>
       <c r="C40" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['rt', 'bagir']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['bagir']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['bagir']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19889</v>
+        <v>32903</v>
       </c>
       <c r="C41" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,17 +2096,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'petikan', 'dialog', 'sederhana', 'antara', 'almarhum', 'didi', 'sipit', 'dan', 'benyamin', 'sueb', 'dalam', 'film', 'kabayan', 'saba', 'metropolitan', 'yang', 'menyentuh']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['bagir', 'petikan', 'dialog', 'sederhana', 'alm', 'didi', 'petet', 'benyamin', 'sueb', 'dlm', 'film', 'kabayan', 'saba', 'metropolitan', 'menyentuh']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['bagir', 'peti', 'dialog', 'sederhana', 'alm', 'didi', 'petet', 'benyamin', 'sueb', 'dlm', 'film', 'kabayan', 'saba', 'metropolitan', 'sentuh']</t>
+          <t>['bagir', 'petikan', 'dialog', 'sederhana', 'almarhum', 'didi', 'sipit', 'benyamin', 'sueb', 'film', 'kabayan', 'saba', 'metropolitan', 'menyentuh']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['bagir', 'peti', 'dialog', 'sederhana', 'almarhum', 'didi', 'sipit', 'benyamin', 'sueb', 'film', 'kabayan', 'saba', 'metropolitan', 'sentuh']</t>
         </is>
       </c>
     </row>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19890</v>
+        <v>32904</v>
       </c>
       <c r="C42" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,17 +2137,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'acara', 'unik', 'yang', 'in', 'saya', 'allah', 'menarik', 'intimate', 'mindfulness', 'session', 'bersama', 'mas', 'adjie', 'santoso', 'putro', 'dan', 'saya', 'dipandu', 'mari']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['bagir', 'acara', 'unik', 'in', 'sya', 'allah', 'menarik', 'intimate', 'mindfulness', 'session', 'mas', 'adjie', 'santoso', 'putro', 'dipandu', 'mari']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['bagir', 'acara', 'unik', 'in', 'sya', 'allah', 'tarik', 'intimate', 'mindfulness', 'session', 'mas', 'adjie', 'santoso', 'putro', 'pandu', 'mari']</t>
+          <t>['bagir', 'acara', 'unik', 'in', 'allah', 'menarik', 'intimate', 'mindfulness', 'session', 'mas', 'adjie', 'santoso', 'putro', 'dipandu', 'mari']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['bagir', 'acara', 'unik', 'in', 'allah', 'tarik', 'intimate', 'mindfulness', 'session', 'mas', 'adjie', 'santoso', 'putro', 'pandu', 'mari']</t>
         </is>
       </c>
     </row>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19891</v>
+        <v>32905</v>
       </c>
       <c r="C43" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,15 +2178,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['ota', 'lamak', 'part', 'david', 'chalik', 'business', 'talks', 'amp', 'quotes', 'via']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['ota', 'lamak', 'part', 'david', 'chalik', 'business', 'talks', 'quotes', 'via']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['ota', 'lamak', 'part', 'david', 'chalik', 'business', 'talks', 'quotes', 'via']</t>
         </is>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19892</v>
+        <v>32906</v>
       </c>
       <c r="C44" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,17 +2219,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'francis', 'ford', 'coppola', 'sutradara', 'the', 'godfather', 'penyabet', 'oscar', 'menafsiri', 'al, fatihah', 'dalam', 'konpers', 'tuhan', 'itu', 'maha', 'pengas']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['bagir', 'francis', 'ford', 'coppola', 'sutradara', 'the', 'godfather', 'penyabet', 'oscar', 'menafsiri', 'alfatihah', 'dlm', 'konpers', 'tuhan', 'maha', 'pengas']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['bagir', 'francis', 'ford', 'coppola', 'sutradara', 'the', 'godfather', 'sabet', 'oscar', 'tafsir', 'alfatihah', 'dlm', 'konpers', 'tuhan', 'maha', 'kas']</t>
+          <t>['bagir', 'francis', 'ford', 'coppola', 'sutradara', 'the', 'godfather', 'penyabet', 'oscar', 'menafsiri', 'al, fatihah', 'konpers', 'tuhan', 'maha', 'pengas']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['bagir', 'francis', 'ford', 'coppola', 'sutradara', 'the', 'godfather', 'sabet', 'oscar', 'tafsir', 'al fatihah', 'konpers', 'tuhan', 'maha', 'kas']</t>
         </is>
       </c>
     </row>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19893</v>
+        <v>32907</v>
       </c>
       <c r="C45" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,17 +2260,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'kata', 'sebagian', 'ahli', 'salah', 'satu', 'cara', 'memelihara', 'kecerdasan', 'spiritual', 'kecerdasan, spiritual', 'adalah', 'mempertahankan', 'sifat', 'positif', 'kekanakan', 'kita']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['bagir', 'sbgn', 'ahli', 'salah', 'memelihara', 'kecerdasan', 'spiritual', 'sq', 'adlh', 'mempertahankan', 'sifat', 'positif', 'kekanakan']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['bagir', 'sbgn', 'ahli', 'salah', 'pelihara', 'cerdas', 'spiritual', 'sq', 'adlh', 'tahan', 'sifat', 'positif', 'kana']</t>
+          <t>['bagir', 'ahli', 'salah', 'memelihara', 'kecerdasan', 'spiritual', 'kecerdasan, spiritual', 'mempertahankan', 'sifat', 'positif', 'kekanakan']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['bagir', 'ahli', 'salah', 'pelihara', 'cerdas', 'spiritual', 'cerdas spiritual', 'tahan', 'sifat', 'positif', 'kana']</t>
         </is>
       </c>
     </row>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19894</v>
+        <v>32908</v>
       </c>
       <c r="C46" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,17 +2301,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['rt', 'indonesia', 'tidak', 'akan', 'kuatjika', 'terus', 'merasa', 'ekslusif', 'dengan', 'ras', 'keturunan', 'saat', 'kita', 'menyatakan', 'diri', 'sebagai', 'warga, negara, indonesia', 'artinya', 'kita']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['indonesia', 'kuatjika', 'ekslusif', 'ras', 'keturunan', 'wni']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['indonesia', 'kuatjika', 'ekslusif', 'ras', 'turun', 'wni']</t>
+          <t>['indonesia', 'kuatjika', 'ekslusif', 'ras', 'keturunan', 'warga, negara, indonesia']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['indonesia', 'kuatjika', 'ekslusif', 'ras', 'turun', 'warga negara indonesia']</t>
         </is>
       </c>
     </row>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19895</v>
+        <v>32909</v>
       </c>
       <c r="C47" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,15 +2342,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['rt', 'allah', 'menjadikan', 'kita', 'beragam', 'ras', 'dan', 'itu', 'fitrah', 'tetapi', 'menjadi', 'untuk', 'mengakui', 'sebagai', 'bagian', 'dari', 'sebuah', 'bangsa', 'adalah']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['allah', 'menjadikan', 'beragam', 'ras', 'fitrah', 'mengakui', 'bangsa']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['allah', 'jadi', 'agam', 'ras', 'fitrah', 'aku', 'bangsa']</t>
         </is>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19896</v>
+        <v>32910</v>
       </c>
       <c r="C48" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,15 +2383,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['rt', 'orang', 'yang', 'mengaku', 'cinta', 'terhadap', 'budaya', 'indonesia', 'dan', 'mengaku', 'bukan', 'berdarah', 'indonesia', 'bukanlah', 'nasionalis', 'tetapi', 'bisa']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['orang', 'mengaku', 'cinta', 'budaya', 'indonesia', 'mengaku', 'berdarah', 'indonesia', 'nasionalis']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['orang', 'aku', 'cinta', 'budaya', 'indonesia', 'aku', 'darah', 'indonesia', 'nasionalis']</t>
         </is>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19897</v>
+        <v>32911</v>
       </c>
       <c r="C49" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,15 +2424,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['orang', 'yang', 'mengaku', 'cinta', 'terhadap', 'budaya', 'indonesia', 'dan', 'mengaku', 'bukan', 'berdarah', 'indonesia', 'bukanlah', 'nasionalis', 'tetapi']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['orang', 'mengaku', 'cinta', 'budaya', 'indonesia', 'mengaku', 'berdarah', 'indonesia', 'nasionalis']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['orang', 'aku', 'cinta', 'budaya', 'indonesia', 'aku', 'darah', 'indonesia', 'nasionalis']</t>
         </is>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19898</v>
+        <v>32912</v>
       </c>
       <c r="C50" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,15 +2465,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['allah', 'menjadikan', 'kita', 'beragam', 'ras', 'dan', 'itu', 'fitrah', 'tetapi', 'menjadi', 'untuk', 'mengakui', 'sebagai', 'bagian', 'dari', 'sebuah', 'bangsa', 'adalah', 'pilihan']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['allah', 'menjadikan', 'beragam', 'ras', 'fitrah', 'mengakui', 'bangsa', 'pilihan']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['allah', 'jadi', 'agam', 'ras', 'fitrah', 'aku', 'bangsa', 'pilih']</t>
         </is>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19899</v>
+        <v>32913</v>
       </c>
       <c r="C51" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,17 +2506,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['indonesia', 'tidak', 'akan', 'kuatjika', 'terus', 'merasa', 'ekslusif', 'dengan', 'ras', 'keturunan', 'saat', 'kita', 'menyatakan', 'diri', 'sebagai', 'warga, negara, indonesia', 'artin']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['indonesia', 'kuatjika', 'ekslusif', 'ras', 'keturunan', 'wni', 'artin']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['indonesia', 'kuatjika', 'ekslusif', 'ras', 'turun', 'wni', 'artin']</t>
+          <t>['indonesia', 'kuatjika', 'ekslusif', 'ras', 'keturunan', 'warga, negara, indonesia', 'artin']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['indonesia', 'kuatjika', 'ekslusif', 'ras', 'turun', 'warga negara indonesia', 'artin']</t>
         </is>
       </c>
     </row>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19900</v>
+        <v>32914</v>
       </c>
       <c r="C52" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,17 +2547,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['rt', 'bersama', 'calon', 'wali, kota', 'bukittinggi', 'david', 'chalik']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['calon', 'walikota', 'bukittinggi', 'david', 'chalik']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['calon', 'walikota', 'bukittinggi', 'david', 'chalik']</t>
+          <t>['calon', 'wali, kota', 'bukittinggi', 'david', 'chalik']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['calon', 'wali kota', 'bukittinggi', 'david', 'chalik']</t>
         </is>
       </c>
     </row>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19901</v>
+        <v>32915</v>
       </c>
       <c r="C53" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,17 +2588,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'menurut', 'imam', 'ali', 'jika', 'seseorang', 'lebih', 'senang', 'kepada', 'orang', 'yang', 'datang', 'untuk', 'memberi', 'daripada', 'yang', 'meminta', 'darinya', 'maka', 'itu', 'tanda', 'bahwa', 'dia', 'ahli']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 24 samples and 25 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['bagir', 'mnrt', 'imam', 'ali', 'seseorg', 'lbh', 'senang', 'kpd', 'org', 'drpd', 'darinya', 'tanda', 'bhw', 'ahli']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['bagir', 'mnrt', 'imam', 'ali', 'seseorg', 'lbh', 'senang', 'kpd', 'org', 'drpd', 'dari', 'tanda', 'bhw', 'ahli']</t>
+          <t>['bagir', 'imam', 'ali', 'senang', 'orang', 'darinya', 'tanda', 'ahli']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['bagir', 'imam', 'ali', 'senang', 'orang', 'dari', 'tanda', 'ahli']</t>
         </is>
       </c>
     </row>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19902</v>
+        <v>32916</v>
       </c>
       <c r="C54" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,17 +2629,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['rt', 'dokter', 'bercadar', 'ini', 'gratiskan', 'pengobatan', 'buat', 'semua', 'warga', 'yang', 'tidak', 'mampu', 'terus', 'fr', 'yang', 'mau', 'melarang', 'cadar', 'amp', 'celana', 'cingkrang']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['dokter', 'bercadar', 'gratiskan', 'pengobatan', 'warga', 'trus', 'fr', 'melarang', 'cadar', 'celana', 'cingkrang']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['dokter', 'cadar', 'gratis', 'obat', 'warga', 'trus', 'fr', 'larang', 'cadar', 'celana', 'cingkrang']</t>
+          <t>['dokter', 'bercadar', 'gratiskan', 'pengobatan', 'warga', 'fr', 'melarang', 'cadar', 'celana', 'cingkrang']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['dokter', 'cadar', 'gratis', 'obat', 'warga', 'fr', 'larang', 'cadar', 'celana', 'cingkrang']</t>
         </is>
       </c>
     </row>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19903</v>
+        <v>32917</v>
       </c>
       <c r="C55" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,15 +2670,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'akan', 'ada', 'shihab', 'amp', 'shihab', 'di', 'masjid', 'agung', 'al', 'azhar', 'kesempatan', 'istimewa']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>['bagir', 'shihab', 'shihab', 'masjid', 'agung', 'al', 'azhar', 'kesempatan', 'istimewa']</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>['bagir', 'shihab', 'shihab', 'masjid', 'agung', 'al', 'azhar', 'sempat', 'istimewa']</t>
         </is>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19904</v>
+        <v>32918</v>
       </c>
       <c r="C56" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,17 +2711,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['haha', 'yuk', 'shaa']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['hahaha', 'yuk', 'shaa']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['hahaha', 'yuk', 'shaa']</t>
+          <t>['haha', 'yuk', 'shaa']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['haha', 'yuk', 'shaa']</t>
         </is>
       </c>
     </row>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19905</v>
+        <v>32919</v>
       </c>
       <c r="C57" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2472,17 +2752,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['saat', 'orang', 'bicara', 'tentang', 'simbol', 'keagaamaan', 'akan', 'menampak', 'seberapa', 'jauh', 'pemahamannya', 'akan', 'agama', 'tersebut', 'terlihat']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['orang', 'bicara', 'simbol', 'keagaamaan', 'nampak', 'pemahamannya', 'agama']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['orang', 'bicara', 'simbol', 'keagaamaan', 'nampak', 'paham', 'agama']</t>
+          <t>['orang', 'bicara', 'simbol', 'keagaamaan', 'menampak', 'pemahamannya', 'agama']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['orang', 'bicara', 'simbol', 'keagaamaan', 'tampak', 'paham', 'agama']</t>
         </is>
       </c>
     </row>
@@ -2491,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19906</v>
+        <v>32920</v>
       </c>
       <c r="C58" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2508,17 +2793,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['dari', 'qualitas', 'pernyataan', 'nya', 'kita', 'dapat', 'mengetahui', 'seberapa', 'jauh', 'pemahamannya', 'seperti', 'menghadapi', 'anak', 'yang', 'bicara']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['qualitas', 'statement', 'pemahamannya', 'menghadapi', 'anak', 'bicara']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['qualitas', 'statement', 'paham', 'hadap', 'anak', 'bicara']</t>
+          <t>['qualitas', 'pernyataan', 'pemahamannya', 'menghadapi', 'anak', 'bicara']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['qualitas', 'nyata', 'paham', 'hadap', 'anak', 'bicara']</t>
         </is>
       </c>
     </row>
@@ -2527,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19907</v>
+        <v>32921</v>
       </c>
       <c r="C59" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2544,17 +2834,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['rt', 'twit', 'we', 'are', 'on', 'the', 'road', 'to', 'half', 'million']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['tweets', 'we', 'are', 'on', 'the', 'road', 'to', 'half', 'million']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['tweets', 'we', 'are', 'on', 'the', 'road', 'to', 'half', 'million']</t>
+          <t>['twit', 'we', 'are', 'on', 'the', 'road', 'to', 'half', 'million']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['twit', 'we', 'are', 'on', 'the', 'road', 'to', 'half', 'million']</t>
         </is>
       </c>
     </row>
@@ -2563,10 +2858,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19908</v>
+        <v>32922</v>
       </c>
       <c r="C60" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2580,17 +2875,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'the', 'director', 'wants', 'it', 'the', 'cast', 'wants', 'it', 'the', 'fan', 'want', 'it', 'hbo', 'max', 'fan', 'screenings', 'around', 'the', 'world', 'lets', 'do', 'this']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['the', 'director', 'wants', 'it', 'the', 'cast', 'wants', 'it', 'the', 'fans', 'want', 'it', 'hbo', 'max', 'fan', 'screenings', 'around', 'the', 'world', 'lets', 'do', 'this']</t>
+          <t>&lt;FreqDist with 16 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['the', 'director', 'wants', 'it', 'the', 'cast', 'wants', 'it', 'the', 'fans', 'want', 'it', 'hbo', 'max', 'fan', 'screenings', 'around', 'the', 'world', 'lets', 'do', 'this']</t>
+          <t>['the', 'director', 'wants', 'it', 'the', 'cast', 'wants', 'it', 'the', 'fan', 'want', 'it', 'hbo', 'max', 'fan', 'screenings', 'around', 'the', 'world', 'lets', 'do', 'this']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['the', 'director', 'wants', 'it', 'the', 'cast', 'wants', 'it', 'the', 'fan', 'want', 'it', 'hbo', 'max', 'fan', 'screenings', 'around', 'the', 'world', 'lets', 'do', 'this']</t>
         </is>
       </c>
     </row>
@@ -2599,10 +2899,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19909</v>
+        <v>32923</v>
       </c>
       <c r="C61" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2616,17 +2916,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['menjaga', 'hati', 'pikiran', 'dan', 'nafs', 'sangatlah', 'penting', 'berdzikir', 'menempatkan', 'kita', 'pada', 'state', 'kesadaran', 'untuk', 'berhenti']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['menjaga', 'hati', 'fikiran', 'nafs', 'berdzikir', 'menempatkan', 'state', 'kesadaran', 'berhenti']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['jaga', 'hati', 'fikiran', 'nafs', 'berdzikir', 'tempat', 'state', 'sadar', 'henti']</t>
+          <t>['menjaga', 'hati', 'pikiran', 'nafs', 'berdzikir', 'menempatkan', 'state', 'kesadaran', 'berhenti']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['jaga', 'hati', 'pikir', 'nafs', 'berdzikir', 'tempat', 'state', 'sadar', 'henti']</t>
         </is>
       </c>
     </row>
@@ -2635,10 +2940,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19910</v>
+        <v>32924</v>
       </c>
       <c r="C62" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2652,17 +2957,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['walaupun', 'sesama', 'ikan', 'dan', 'sama', 'hidup', 'di', 'air', 'bukan', 'berarti', 'sama', 'kehidupan', 'ikan', 'di', 'sungai', 'dengan', 'yang', 'di, laut', 'begitu']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['ikan', 'hidup', 'air', 'kehidupan', 'ikan', 'sungai', 'dilaut']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['ikan', 'hidup', 'air', 'hidup', 'ikan', 'sungai', 'laut']</t>
+          <t>['ikan', 'hidup', 'air', 'kehidupan', 'ikan', 'sungai', 'di, laut']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['ikan', 'hidup', 'air', 'hidup', 'ikan', 'sungai', 'di laut']</t>
         </is>
       </c>
     </row>
@@ -2671,10 +2981,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19911</v>
+        <v>32925</v>
       </c>
       <c r="C63" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2688,15 +2998,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['sang', 'illahi', 'menjawab', 'doa', 'setiap', 'hambanya', 'terlebih', 'yang', 'tulus', 'dan', 'ikhlas', 'dalam', 'doanya', 'apa', 'pun', 'bahasanya', 'masalah']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>['sang', 'illahi', 'doa', 'hambanya', 'tulus', 'ikhlas', 'doanya', 'bahasanya']</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>['sang', 'illahi', 'doa', 'hamba', 'tulus', 'ikhlas', 'doa', 'bahasa']</t>
         </is>
@@ -2707,10 +3022,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19912</v>
+        <v>32926</v>
       </c>
       <c r="C64" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2724,15 +3039,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['rt', 'ingin', 'tahu', 'maunya', 'allah', 'pada', 'dirimu', 'jika', 'allah', 'mau', 'hinakan', 'dirimu', 'allah', 'buka', 'jiwa', 'sombongmu', 'dan', 'menakdirkan', 'hawa', 'nafsu']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['maunya', 'allah', 'dirimu', 'allah', 'hinakan', 'dirimu', 'allah', 'buka', 'jiwa', 'sombongmu', 'menakdirkan', 'hawa', 'nafsu']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['mau', 'allah', 'diri', 'allah', 'hina', 'diri', 'allah', 'buka', 'jiwa', 'sombong', 'takdir', 'hawa', 'nafsu']</t>
         </is>
@@ -2743,10 +3063,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19913</v>
+        <v>32927</v>
       </c>
       <c r="C65" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2760,15 +3080,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['rt', 'kesombongan', 'bisa', 'muncul', 'akibat', 'anda', 'punya', 'backing', 'orang', 'kuat', 'dan', 'dekat', 'dengan', 'orang', 'hebat', 'anda', 'menjadi', 'tangan', 'kanan', 'tokoh']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>['kesombongan', 'muncul', 'akibat', 'backing', 'orang', 'kuat', 'orang', 'hebat', 'tangan', 'kanan', 'tokoh']</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>['sombong', 'muncul', 'akibat', 'backing', 'orang', 'kuat', 'orang', 'hebat', 'tangan', 'kanan', 'tokoh']</t>
         </is>
@@ -2779,10 +3104,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19914</v>
+        <v>32928</v>
       </c>
       <c r="C66" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2796,17 +3121,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['ada', 'banyak', 'model', 'celana', 'dari', 'baggy', 'cutbray', 'kurus', 'kurus', 'fit', 'dan', 'ada', 'yang', 'panjang', 'sampai', 'model', 'cingkrang', 'ala', 'lee']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['model', 'celana', 'baggy', 'cutbray', 'slim', 'slim', 'fit', 'model', 'cingkrang', 'ala', 'lee']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['model', 'celana', 'baggy', 'cutbray', 'slim', 'slim', 'fit', 'model', 'cingkrang', 'ala', 'lee']</t>
+          <t>['model', 'celana', 'baggy', 'cutbray', 'kurus', 'kurus', 'fit', 'model', 'cingkrang', 'ala', 'lee']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['model', 'celana', 'baggy', 'cutbray', 'kurus', 'kurus', 'fit', 'model', 'cingkrang', 'ala', 'lee']</t>
         </is>
       </c>
     </row>
@@ -2815,10 +3145,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19915</v>
+        <v>32929</v>
       </c>
       <c r="C67" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2832,15 +3162,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['indonesia', 'berbeda', 'tapi', 'tetap', 'satu', 'dan', 'rawan', 'provokasi', 'ragam', 'etniksuku', 'dan', 'agama', 'menjadi', 'kekuatan', 'sekaligus', 'kele']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['indonesia', 'berbeda', 'rawan', 'provokasi', 'ragam', 'etniksuku', 'agama', 'kekuatan', 'kele']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>['indonesia', 'beda', 'rawan', 'provokasi', 'ragam', 'etniksuku', 'agama', 'kuat', 'kele']</t>
         </is>
@@ -2851,10 +3186,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19916</v>
+        <v>32930</v>
       </c>
       <c r="C68" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2868,15 +3203,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['kuhp', 'yang', 'baru', 'adalah', 'wajib', 'bagi', 'indonesia', 'saat', 'ini', 'karena', 'kuhp', 'yang', 'lama', 'dasar', 'semangat', 'pembuatannya', 'adalah', 'untuk']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
           <t>['kuhp', 'wajib', 'indonesia', 'kuhp', 'dasar', 'semangat', 'pembuatannya']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>['kuhp', 'wajib', 'indonesia', 'kuhp', 'dasar', 'semangat', 'buat']</t>
         </is>
@@ -2887,10 +3227,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19917</v>
+        <v>32931</v>
       </c>
       <c r="C69" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2904,17 +3244,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['saya', 'sebagai', 'bagian', 'dari', 'mahasiswa', 'di', 'era', 'reformasi', 'respect', 'untuk', 'para', 'mahasiswa', 'yang', 'saat', 'ini', 'berani', 'menyatakan', 'aspirasi', 'nya']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['sy', 'mahasiswa', 'era', 'reformasi', 'respect', 'mahasiswa', 'berani', 'aspirasi']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['sy', 'mahasiswa', 'era', 'reformasi', 'respect', 'mahasiswa', 'berani', 'aspirasi']</t>
+          <t>['mahasiswa', 'era', 'reformasi', 'respect', 'mahasiswa', 'berani', 'aspirasi']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['mahasiswa', 'era', 'reformasi', 'respect', 'mahasiswa', 'berani', 'aspirasi']</t>
         </is>
       </c>
     </row>
@@ -2923,10 +3268,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19918</v>
+        <v>32932</v>
       </c>
       <c r="C70" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2940,17 +3285,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['dan', 'bagi', 'yang', 'melakukan', 'demonstrasi', 'secara', 'anarkis', 'silakan', 'dilakukan', 'proses', 'hukum', 'tetapi', 'bagi', 'mahasiswa', 'yang', 'berd']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['demonstrasi', 'anarkis', 'silahkan', 'proses', 'hukum', 'mahasiswa', 'berd']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['demonstrasi', 'anarkis', 'silah', 'proses', 'hukum', 'mahasiswa', 'berd']</t>
+          <t>['demonstrasi', 'anarkis', 'silakan', 'proses', 'hukum', 'mahasiswa', 'berd']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['demonstrasi', 'anarkis', 'sila', 'proses', 'hukum', 'mahasiswa', 'berd']</t>
         </is>
       </c>
     </row>
@@ -2959,10 +3309,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19919</v>
+        <v>32933</v>
       </c>
       <c r="C71" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2976,15 +3326,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['ini', 'negara', 'pancasila', 'dimana', 'sila', 'ketuhanan', 'yang', 'maha', 'esa', 'menjadi', 'ruh', 'bagi', 'sila', 'yang', 'lainnya', 'buka', 'siapa', 'oknum']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['negara', 'pancasila', 'dimana', 'sila', 'ketuhanan', 'maha', 'esa', 'ruh', 'sila', 'buka', 'oknum']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['negara', 'pancasila', 'mana', 'sila', 'tuhan', 'maha', 'esa', 'ruh', 'sila', 'buka', 'oknum']</t>
         </is>
@@ -2995,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19920</v>
+        <v>32934</v>
       </c>
       <c r="C72" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3012,15 +3367,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['setiap', 'rumah', 'ibadah', 'di', 'indonesia', 'harus', 'dilindungi', 'oleh', 'penegak', 'hukum', 'sebagai', 'bagian', 'dari', 'penegakan', 'hukum', 'termas']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['rumah', 'ibadah', 'indonesia', 'dilindungi', 'penegak', 'hukum', 'penegakan', 'hukum', 'termas']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['rumah', 'ibadah', 'indonesia', 'lindung', 'tegak', 'hukum', 'tega', 'hukum', 'mas']</t>
         </is>
@@ -3031,10 +3391,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19921</v>
+        <v>32935</v>
       </c>
       <c r="C73" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3048,15 +3408,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['demo', 'boleh', 'saja', 'di', 'negara', 'demokrasi', 'dan', 'itu', 'haknya', 'dilindungi', 'konstitusi', 'tapi', 'jangan', 'anarkisaparat', 'wajib', 'menjaga']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['demo', 'negara', 'demokrasi', 'haknya', 'dilindungi', 'konstitusi', 'anarkisaparat', 'wajib', 'menjaga']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['demo', 'negara', 'demokrasi', 'hak', 'lindung', 'konstitusi', 'anarkisaparat', 'wajib', 'jaga']</t>
         </is>
@@ -3067,10 +3432,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19922</v>
+        <v>32936</v>
       </c>
       <c r="C74" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3084,15 +3449,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['ada', 'banyak', 'kejadian', 'dimana', 'tempat', 'ibadah', 'menjadi', 'tempat', 'perlindungan', 'bagi', 'orang', 'yang', 'dianggap', 'pelanggar', 'hukumadab']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>['kejadian', 'dimana', 'ibadah', 'perlindungan', 'orang', 'dianggap', 'pelanggar', 'hukumadab']</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>['jadi', 'mana', 'ibadah', 'lindung', 'orang', 'anggap', 'langgar', 'hukumadab']</t>
         </is>
@@ -3103,10 +3473,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19923</v>
+        <v>32937</v>
       </c>
       <c r="C75" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3120,17 +3490,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['kalau', 'kejadian', 'ini', 'terjadi', 'di', 'masjidil', 'aqsa', 'sudah', 'dapat', 'response', 'dari', 'dunia', 'international', 'dan', 'bisa', 'memancing', 'emosi', 'umat']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['kejadian', 'masjidil', 'aqsa', 'udah', 'response', 'dunia', 'international', 'memancing', 'emosi', 'ummat']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['jadi', 'masjidil', 'aqsa', 'udah', 'response', 'dunia', 'international', 'pancing', 'emosi', 'ummat']</t>
+          <t>['kejadian', 'masjidil', 'aqsa', 'response', 'dunia', 'international', 'memancing', 'emosi', 'umat']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['jadi', 'masjidil', 'aqsa', 'response', 'dunia', 'international', 'pancing', 'emosi', 'umat']</t>
         </is>
       </c>
     </row>
@@ -3139,10 +3514,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19924</v>
+        <v>32938</v>
       </c>
       <c r="C76" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3156,15 +3531,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['jalankan', 'tugas', 'itu', 'wajib', 'dan', 'adab', 'masuk', 'rumah', 'allah', 'itu', 'akhlak']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['jalankan', 'tugas', 'wajib', 'adab', 'masuk', 'rumah', 'allah', 'akhlak']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['jalan', 'tugas', 'wajib', 'adab', 'masuk', 'rumah', 'allah', 'akhlak']</t>
         </is>
@@ -3175,10 +3555,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19925</v>
+        <v>32939</v>
       </c>
       <c r="C77" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3192,15 +3572,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['rt', 'makassar', 'david', 'chalik', 'aktorpresenter']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>['makassar', 'david', 'chalik', 'aktorpresenter']</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>['makassar', 'david', 'chalik', 'aktorpresenter']</t>
         </is>
@@ -3211,10 +3596,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19926</v>
+        <v>32940</v>
       </c>
       <c r="C78" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3228,17 +3613,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['sebelum', 'meninggal', 'beliau', 'masih', 'bersemangat', 'untuk', 'membangun', 'pesawat', 'semoga', 'karya', 'terakhir', 'almarhum', 'menjadi', 'sama']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['meninggal', 'beliau', 'bersemangat', 'membangun', 'pesawat', 'semoga', 'karya', 'almarhum', 'ama']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['tinggal', 'beliau', 'semangat', 'bangun', 'pesawat', 'moga', 'karya', 'almarhum', 'ama']</t>
+          <t>['meninggal', 'beliau', 'bersemangat', 'membangun', 'pesawat', 'semoga', 'karya', 'almarhum']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['tinggal', 'beliau', 'semangat', 'bangun', 'pesawat', 'moga', 'karya', 'almarhum']</t>
         </is>
       </c>
     </row>
@@ -3247,10 +3637,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19927</v>
+        <v>32941</v>
       </c>
       <c r="C79" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3264,15 +3654,20 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['seorang', 'yang', 'mengaku', 'muslim', 'dari', 'lahir', 'belum', 'tentu', 'lebih', 'baik', 'dari', 'seseorang', 'yang', 'memilih', 'menjadi', 'seorang', 'muslim', 'di']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>['mengaku', 'muslim', 'lahir', 'memilih', 'muslim']</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>['aku', 'muslim', 'lahir', 'pilih', 'muslim']</t>
         </is>
@@ -3283,10 +3678,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19928</v>
+        <v>32942</v>
       </c>
       <c r="C80" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3300,17 +3695,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['orang', 'disebutkan', 'mualaf', 'saat', 'pertama', 'kali', 'menyatakan', 'masuk', 'islam', 'dengan', 'bersyahadat', 'selanjutnya', 'ia', 'disebut', 'sebagai']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['orang', 'mualaf', 'kali', 'masuk', 'islam', 'bersyahadat', 'sebaga']</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['orang', 'mualaf', 'kali', 'masuk', 'islam', 'syahadat', 'sebaga']</t>
+          <t>['orang', 'mualaf', 'kali', 'masuk', 'islam', 'bersyahadat']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['orang', 'mualaf', 'kali', 'masuk', 'islam', 'syahadat']</t>
         </is>
       </c>
     </row>
@@ -3319,10 +3719,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19929</v>
+        <v>32943</v>
       </c>
       <c r="C81" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3336,15 +3736,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['jika', 'mengingatkan', 'kesalahan', 'atau', 'khilaf', 'seseorang', 'ada', 'adab', 'nya', 'yaitu', 'secara', 'personalorang', 'yang', 'menghina', 'saudarany']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['kesalahan', 'khilaf', 'adab', 'personalorang', 'menghina', 'saudarany']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['salah', 'khilaf', 'adab', 'personalorang', 'hina', 'saudarany']</t>
         </is>
@@ -3355,10 +3760,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19930</v>
+        <v>32944</v>
       </c>
       <c r="C82" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3372,15 +3777,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['mualaf', 'orang', 'yang', 'di', 'lembutkan', 'hatinya', 'saudara', 'kita', 'yang', 'harus', 'dibantu', 'dan', 'dirangkul', 'akhlak', 'seorang', 'muslim', 'pad']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['mualaf', 'orang', 'lembutkan', 'hatinya', 'saudara', 'dibantu', 'dirangkul', 'akhlak', 'muslim', 'pad']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['mualaf', 'orang', 'lembut', 'hati', 'saudara', 'bantu', 'rangkul', 'akhlak', 'muslim', 'pad']</t>
         </is>
@@ -3391,10 +3801,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19931</v>
+        <v>32945</v>
       </c>
       <c r="C83" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3408,15 +3818,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['tuntunan', 'sudah', 'ada', 'dan', 'akibat', 'sudah', 'sudah', 'dijelaskan', 'pilihan', 'ada', 'di', 'tangan', 'masing', 'masing', 'termasuk', 'konsekuensinya']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>['tuntunan', 'akibat', 'pilihan', 'tangan', 'konsekuensinya']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['tuntun', 'akibat', 'pilih', 'tangan', 'konsekuensi']</t>
         </is>
@@ -3427,10 +3842,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19932</v>
+        <v>32946</v>
       </c>
       <c r="C84" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3444,17 +3859,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['tuhan', 'semesta', 'alam', 'allah', 'subhanahu, wa, taala', 'di, dalam', 'al', 'alquran', 'memerintahkan', 'hambanya', 'untuk', 'berlaku', 'adil', 'berbuat', 'baik', 'terhadap', 'ker']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['tuhan', 'semesta', 'alam', 'allah', 'swt', 'didalam', 'al', 'quran', 'memerintahkan', 'hambanya', 'berlaku', 'adil', 'berbuat', 'ker']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['tuhan', 'semesta', 'alam', 'allah', 'swt', 'dalam', 'al', 'quran', 'perintah', 'hamba', 'laku', 'adil', 'buat', 'ker']</t>
+          <t>['tuhan', 'semesta', 'alam', 'allah', 'subhanahu, wa, taala', 'di, dalam', 'al', 'alquran', 'memerintahkan', 'hambanya', 'berlaku', 'adil', 'berbuat', 'ker']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['tuhan', 'semesta', 'alam', 'allah', 'subhanahu wa taala', 'di dalam', 'al', 'alquran', 'perintah', 'hamba', 'laku', 'adil', 'buat', 'ker']</t>
         </is>
       </c>
     </row>
@@ -3463,10 +3883,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19933</v>
+        <v>32947</v>
       </c>
       <c r="C85" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3480,17 +3900,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['melakukan', 'perbuatan', 'baik', 'terhadap', 'manusia', 'dan', 'menjaga', 'ciptaan', 'allah', 'subhanahu, wa, taala', 'itu', 'tanda', 'seorang', 'muslim', 'yang', 'baik', 'seper']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['perbuatan', 'manusia', 'menjaga', 'ciptaan', 'allah', 'swt', 'tanda', 'muslim', 'seper']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['buat', 'manusia', 'jaga', 'cipta', 'allah', 'swt', 'tanda', 'muslim', 'per']</t>
+          <t>['perbuatan', 'manusia', 'menjaga', 'ciptaan', 'allah', 'subhanahu, wa, taala', 'tanda', 'muslim', 'seper']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['buat', 'manusia', 'jaga', 'cipta', 'allah', 'subhanahu wa taala', 'tanda', 'muslim', 'per']</t>
         </is>
       </c>
     </row>
@@ -3499,10 +3924,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19934</v>
+        <v>32948</v>
       </c>
       <c r="C86" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3516,17 +3941,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['muslim', 'yang', 'baik', 'dalam', 'ibadahnya', 'kepada', 'allah', 'subhanahu, wa, taala', 'tercermin', 'dalam', 'akhlaknya', 'terhadap', 'sesama', 'manusia']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['muslim', 'ibadahnya', 'allah', 'swt', 'tercermin', 'akhlaknya', 'manusia']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['muslim', 'ibadah', 'allah', 'swt', 'cermin', 'akhlak', 'manusia']</t>
+          <t>['muslim', 'ibadahnya', 'allah', 'subhanahu, wa, taala', 'tercermin', 'akhlaknya', 'manusia']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['muslim', 'ibadah', 'allah', 'subhanahu wa taala', 'cermin', 'akhlak', 'manusia']</t>
         </is>
       </c>
     </row>
@@ -3535,10 +3965,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19935</v>
+        <v>32949</v>
       </c>
       <c r="C87" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3552,15 +3982,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['dengan', 'membaca', 'kalimat', 'syahadat', 'seseorang', 'sudah', 'menjadi', 'muslim', 'dan', 'akan', 'lebih', 'baik', 'jika', 'menjalankan', 'rukun', 'islam', 'yang']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>['membaca', 'kalimat', 'syahadat', 'muslim', 'menjalankan', 'rukun', 'islam']</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>['baca', 'kalimat', 'syahadat', 'muslim', 'jalan', 'rukun', 'islam']</t>
         </is>
@@ -3571,10 +4006,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19936</v>
+        <v>32950</v>
       </c>
       <c r="C88" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3588,17 +4023,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['rt', 'do, not', 'give', 'upallah', 'will', 'never', 'ever', 'leave', 'kamu', 'continue', 'praying', 'and', 'doing', 'good', 'berpikir', 'he', 'will', 'show', 'up', 'and', 'show', 'out']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['dont', 'give', 'upallah', 'will', 'never', 'ever', 'leave', 'you', 'continue', 'praying', 'and', 'doing', 'good', 'things', 'he', 'will', 'show', 'up', 'and', 'show', 'out']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['dont', 'give', 'upallah', 'will', 'never', 'ever', 'leave', 'you', 'continue', 'praying', 'and', 'doing', 'good', 'things', 'he', 'will', 'show', 'up', 'and', 'show', 'out']</t>
+          <t>['do, not', 'give', 'upallah', 'will', 'never', 'ever', 'leave', 'continue', 'praying', 'and', 'doing', 'good', 'berpikir', 'he', 'will', 'show', 'up', 'and', 'show', 'out']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['do not', 'give', 'upallah', 'will', 'never', 'ever', 'leave', 'continue', 'praying', 'and', 'doing', 'good', 'pikir', 'he', 'will', 'show', 'up', 'and', 'show', 'out']</t>
         </is>
       </c>
     </row>
@@ -3607,10 +4047,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19937</v>
+        <v>32951</v>
       </c>
       <c r="C89" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3624,17 +4064,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['rt', 'prayer', 'almighty', 'tanya', 'kamu', 'to', 'strengthen', 'me', 'sok', 'can', 'face', 'apapun', 'challenges', 'kamu', 'put', 'in', 'my', 'path', 'amp', 'not', 'be', 'overwhelmed', 'by', 'the']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 23 samples and 24 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['prayer', 'almighty', 'ask', 'you', 'to', 'strengthen', 'me', 'so', 'can', 'face', 'whatever', 'challenges', 'you', 'put', 'in', 'my', 'path', 'not', 'be', 'overwhelmed', 'by', 'the']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['prayer', 'almighty', 'ask', 'you', 'to', 'strengthen', 'me', 'so', 'can', 'face', 'whatever', 'challenges', 'you', 'put', 'in', 'my', 'path', 'not', 'be', 'overwhelmed', 'by', 'the']</t>
+          <t>['prayer', 'almighty', 'to', 'strengthen', 'me', 'sok', 'can', 'face', 'apapun', 'challenges', 'put', 'in', 'my', 'path', 'not', 'be', 'overwhelmed', 'by', 'the']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['prayer', 'almighty', 'to', 'strengthen', 'me', 'sok', 'can', 'face', 'apa', 'challenges', 'put', 'in', 'my', 'path', 'not', 'be', 'overwhelmed', 'by', 'the']</t>
         </is>
       </c>
     </row>
@@ -3643,10 +4088,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19938</v>
+        <v>32952</v>
       </c>
       <c r="C90" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3660,15 +4105,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['rt', 'jabar', 'mereka', 'bukan', 'bertakbir', 'karena', 'allah', 'hakekatnya', 'mereka', 'tidak', 'bertakbir', 'karena', 'allah', 'mereka', 'bertakbir', 'untuk', 'pendapat']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>['jabar', 'bertakbir', 'allah', 'hakekatnya', 'bertakbir', 'allah', 'bertakbir', 'pendapat']</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>['jabar', 'takbir', 'allah', 'hakekatnya', 'takbir', 'allah', 'takbir', 'dapat']</t>
         </is>
@@ -3679,10 +4129,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19939</v>
+        <v>32953</v>
       </c>
       <c r="C91" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3696,17 +4146,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['rt', 'bagir', 'kata', 'nabi', 'akhlak', 'yang', 'baik', 'adalah', 'penentu', 'seseorang', 'masuk', 'surga', 'sedang', 'bicara', 'keji', 'amp', 'kotor', 'adalah', 'pulang', 'dibenci', 'maka', 'akhlak', 'yang', 'baik']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 24 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['bagir', 'nabi', 'akhlak', 'adlh', 'penentu', 'seseorg', 'masuk', 'surga', 'sdg', 'bicara', 'keji', 'kotor', 'adlh', 'plg', 'dibenci', 'akhlak']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['bagir', 'nabi', 'akhlak', 'adlh', 'tentu', 'seseorg', 'masuk', 'surga', 'sdg', 'bicara', 'keji', 'kotor', 'adlh', 'plg', 'benci', 'akhlak']</t>
+          <t>['bagir', 'nabi', 'akhlak', 'penentu', 'masuk', 'surga', 'bicara', 'keji', 'kotor', 'pulang', 'dibenci', 'akhlak']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['bagir', 'nabi', 'akhlak', 'tentu', 'masuk', 'surga', 'bicara', 'keji', 'kotor', 'pulang', 'benci', 'akhlak']</t>
         </is>
       </c>
     </row>
@@ -3715,10 +4170,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19940</v>
+        <v>32954</v>
       </c>
       <c r="C92" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3732,17 +4187,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['haha']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['hahahaha']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['hahahaha']</t>
+          <t>['haha']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['haha']</t>
         </is>
       </c>
     </row>
@@ -3751,10 +4211,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19941</v>
+        <v>32955</v>
       </c>
       <c r="C93" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3768,17 +4228,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['rt', 'hehe', 'iya', 'kali', 'the', 'thing', 'is', 'mengendarai', 'mobil', 'atau', 'kendaraan', 'lain', 'is', 'full', 'job', 'to', 'do', 'harus', 'fokus', 'tidak']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['hehehe', 'iya', 'kali', 'the', 'thing', 'is', 'mengendarai', 'mobil', 'kendaraan', 'is', 'full', 'job', 'to', 'do', 'hrs', 'fokus']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['hehehe', 'iya', 'kali', 'the', 'thing', 'is', 'kendara', 'mobil', 'kendara', 'is', 'full', 'job', 'to', 'do', 'hrs', 'fokus']</t>
+          <t>['iya', 'kali', 'the', 'thing', 'is', 'mengendarai', 'mobil', 'kendaraan', 'is', 'full', 'job', 'to', 'do', 'fokus']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['iya', 'kali', 'the', 'thing', 'is', 'kendara', 'mobil', 'kendara', 'is', 'full', 'job', 'to', 'do', 'fokus']</t>
         </is>
       </c>
     </row>
@@ -3787,10 +4252,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19942</v>
+        <v>32956</v>
       </c>
       <c r="C94" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3804,15 +4269,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['rt', 'keluarga', 'ranah', 'warna', 'mohon', 'doa', 'proses', 'lancar', 'dan', 'berkah']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>['keluarga', 'ranah', 'warna', 'mohon', 'doa', 'proses', 'lancar', 'berkah']</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>['keluarga', 'ranah', 'warna', 'mohon', 'doa', 'proses', 'lancar', 'berkah']</t>
         </is>
@@ -3823,10 +4293,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19943</v>
+        <v>32957</v>
       </c>
       <c r="C95" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3840,15 +4310,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['sabar', 'sha', 'mungkin', 'yang', 'bahwa', 'mobil', 'yang', 'lambat', 'itu', 'lagi', 'menikmati', 'coklat', 'juga']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['sabar', 'sha', 'mobil', 'lambat', 'menikmati', 'coklat']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['sabar', 'sha', 'mobil', 'lambat', 'nikmat', 'coklat']</t>
         </is>
@@ -3859,10 +4334,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19944</v>
+        <v>32958</v>
       </c>
       <c r="C96" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3876,15 +4351,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['saat', 'semua', 'manusia', 'di', 'dunia', 'terkoneksi', 'semua', 'jadi', 'berubah', 'semoga', 'tulisan', 'kami', 'ini', 'menginpirasi', 'kepemimpinan']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['manusia', 'dunia', 'terkoneksi', 'berubah', 'semoga', 'tulisan', 'menginpirasi', 'kepemimpinan']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['manusia', 'dunia', 'koneksi', 'ubah', 'moga', 'tulis', 'menginpirasi', 'pimpin']</t>
         </is>
@@ -3895,10 +4375,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19945</v>
+        <v>32959</v>
       </c>
       <c r="C97" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3912,15 +4392,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['kepemimpinan', 'dan', 'perkembangan', 'teknologi', 'di', 'era', 'disruptive']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>['kepemimpinan', 'perkembangan', 'teknologi', 'era', 'disruptive']</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>['pimpin', 'kembang', 'teknologi', 'era', 'disruptive']</t>
         </is>
@@ -3931,10 +4416,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19946</v>
+        <v>32960</v>
       </c>
       <c r="C98" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
@@ -3944,15 +4429,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3963,10 +4453,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19947</v>
+        <v>32961</v>
       </c>
       <c r="C99" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3980,17 +4470,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['sok', 'rudebad', 'attitude']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['so', 'rudebad', 'attitude']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['so', 'rudebad', 'attitude']</t>
+          <t>['sok', 'rudebad', 'attitude']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['sok', 'rudebad', 'attitude']</t>
         </is>
       </c>
     </row>
@@ -3999,10 +4494,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19948</v>
+        <v>32962</v>
       </c>
       <c r="C100" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4016,17 +4511,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['ayo', 'ada', 'yang', 'tau', 'lagu', 'ini', 'hehe', 'srules']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['ayoooo', 'lagu', 'hehehehe', 'srules']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['ayoooo', 'lagu', 'hehehehe', 'srules']</t>
+          <t>['ayo', 'lagu', 'srules']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['ayo', 'lagu', 'srules']</t>
         </is>
       </c>
     </row>
@@ -4035,10 +4535,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19949</v>
+        <v>32963</v>
       </c>
       <c r="C101" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4052,17 +4552,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['dari', 'semalam', 'gue', 'menonton', 'youtube', 'lagu', 'lagu', 'yang', 'gue', 'nontontahun', 'dan', 'an', 'semua', 'haha', 'jadi', 'kangen']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['semalam', 'gw', 'nonton', 'youtube', 'lagu', 'lagu', 'gw', 'nontontahun', 'an', 'hahaha', 'kangen']</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['malam', 'gw', 'nonton', 'youtube', 'lagu', 'lagu', 'gw', 'nontontahun', 'an', 'hahaha', 'kangen']</t>
+          <t>['semalam', 'gue', 'menonton', 'youtube', 'lagu', 'lagu', 'gue', 'nontontahun', 'an', 'haha', 'kangen']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['malam', 'gue', 'tonton', 'youtube', 'lagu', 'lagu', 'gue', 'nontontahun', 'an', 'haha', 'kangen']</t>
         </is>
       </c>
     </row>
